--- a/biology/Zoologie/Hespérie_du_millet/Hespérie_du_millet.xlsx
+++ b/biology/Zoologie/Hespérie_du_millet/Hespérie_du_millet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_millet</t>
+          <t>Hespérie_du_millet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelopidas thrax
 L’Hespérie du millet (Pelopidas thrax) est une espèce de lépidoptères de la famille des Hesperiidae et de la sous-famille des Hesperiinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_millet</t>
+          <t>Hespérie_du_millet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Pelopidas thrax a été décrite par Jakob Hübner en 1821[1].
-Noms vernaculaires
-L'Hespérie du millet se nomme Millet Skipper ou White Branded Swift en anglais[1].
-Sous-espèces
-Pelopidas thrax thrax
-Pelopidas thrax masta Evans, 1949
-Pelopidas thrax inconspicua (Bertolini, 1850)[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pelopidas thrax a été décrite par Jakob Hübner en 1821.
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_millet</t>
+          <t>Hespérie_du_millet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Hespérie du millet est un petit papillon au dessus de couleur marron, avec aux ailes antérieures  une ornementation de taches blanches en alignement courbe[2].
-Le revers est semblable.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du millet se nomme Millet Skipper ou White Branded Swift en anglais.
 </t>
         </is>
       </c>
@@ -562,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_millet</t>
+          <t>Hespérie_du_millet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,16 +591,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Hespérie du millet vole en une ou deux générations, une en juin en Grèce, deux entre mai et mi-octobre en Turquie[2].
-Plantes-hôtes
-Les plantes-hôtes de sa chenille sont inconnues en Europe, en Afrique du nord c'est Panicum miliaceum[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pelopidas thrax thrax
+Pelopidas thrax masta Evans, 1949
+Pelopidas thrax inconspicua (Bertolini, 1850)</t>
         </is>
       </c>
     </row>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_millet</t>
+          <t>Hespérie_du_millet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,18 +629,198 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du millet est un petit papillon au dessus de couleur marron, avec aux ailes antérieures  une ornementation de taches blanches en alignement courbe.
+Le revers est semblable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_du_millet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_millet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du millet vole en une ou deux générations, une en juin en Grèce, deux entre mai et mi-octobre en Turquie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_du_millet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_millet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes-hôtes de sa chenille sont inconnues en Europe, en Afrique du nord c'est Panicum miliaceum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_du_millet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_millet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie du millet est présente en Grèce, en Turquie, en Israël, au Liban, en Syrie, en Irak, en Arabie saoudite et en Inde[1],[2].
-Biotope
-L'Hespérie du millet réside dans les lieux herbus chauds et secs[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du millet est présente en Grèce, en Turquie, en Israël, au Liban, en Syrie, en Irak, en Arabie saoudite et en Inde,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_du_millet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_millet</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du millet réside dans les lieux herbus chauds et secs.
 Sur les autres projets Wikimedia :
 Hespérie du millet, sur Wikimedia CommonsHespérie du millet, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hespérie_du_millet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_millet</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
